--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2502,28 +2502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>581.9911427607194</v>
+        <v>718.8947899003304</v>
       </c>
       <c r="AB2" t="n">
-        <v>796.3059571623402</v>
+        <v>983.6235669414024</v>
       </c>
       <c r="AC2" t="n">
-        <v>720.3076342331959</v>
+        <v>889.7479142368609</v>
       </c>
       <c r="AD2" t="n">
-        <v>581991.1427607194</v>
+        <v>718894.7899003304</v>
       </c>
       <c r="AE2" t="n">
-        <v>796305.9571623402</v>
+        <v>983623.5669414024</v>
       </c>
       <c r="AF2" t="n">
         <v>5.930762600718863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.46484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>720307.6342331959</v>
+        <v>889747.9142368609</v>
       </c>
     </row>
     <row r="3">
@@ -2608,28 +2608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.8924845795946</v>
+        <v>401.1675003534577</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.7957424128596</v>
+        <v>548.8950722446369</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.6313768211944</v>
+        <v>496.5092969286804</v>
       </c>
       <c r="AD3" t="n">
-        <v>322892.4845795946</v>
+        <v>401167.5003534578</v>
       </c>
       <c r="AE3" t="n">
-        <v>441795.7424128596</v>
+        <v>548895.0722446369</v>
       </c>
       <c r="AF3" t="n">
         <v>9.177120439070159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.10286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>399631.3768211944</v>
+        <v>496509.2969286804</v>
       </c>
     </row>
     <row r="4">
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>273.5850843908522</v>
+        <v>342.071578894367</v>
       </c>
       <c r="AB4" t="n">
-        <v>374.3311821856501</v>
+        <v>468.0374253762561</v>
       </c>
       <c r="AC4" t="n">
-        <v>338.6055395349647</v>
+        <v>423.3685903929976</v>
       </c>
       <c r="AD4" t="n">
-        <v>273585.0843908521</v>
+        <v>342071.578894367</v>
       </c>
       <c r="AE4" t="n">
-        <v>374331.1821856501</v>
+        <v>468037.4253762561</v>
       </c>
       <c r="AF4" t="n">
         <v>1.035430485349682e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>338605.5395349648</v>
+        <v>423368.5903929976</v>
       </c>
     </row>
     <row r="5">
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.8647504206355</v>
+        <v>317.3170795053727</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.5077306632738</v>
+        <v>434.1672272207969</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.010150754474</v>
+        <v>392.7309164123737</v>
       </c>
       <c r="AD5" t="n">
-        <v>248864.7504206355</v>
+        <v>317317.0795053727</v>
       </c>
       <c r="AE5" t="n">
-        <v>340507.7306632738</v>
+        <v>434167.2272207969</v>
       </c>
       <c r="AF5" t="n">
         <v>1.101630534541072e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>308010.150754474</v>
+        <v>392730.9164123738</v>
       </c>
     </row>
     <row r="6">
@@ -2926,28 +2926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.4577365988494</v>
+        <v>297.9773854912907</v>
       </c>
       <c r="AB6" t="n">
-        <v>313.9541981752956</v>
+        <v>407.7058046636465</v>
       </c>
       <c r="AC6" t="n">
-        <v>283.9908501390229</v>
+        <v>368.7949348852379</v>
       </c>
       <c r="AD6" t="n">
-        <v>229457.7365988494</v>
+        <v>297977.3854912907</v>
       </c>
       <c r="AE6" t="n">
-        <v>313954.1981752955</v>
+        <v>407705.8046636464</v>
       </c>
       <c r="AF6" t="n">
         <v>1.141167344691793e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.75651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>283990.8501390229</v>
+        <v>368794.9348852379</v>
       </c>
     </row>
     <row r="7">
@@ -3032,28 +3032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>226.7315501890334</v>
+        <v>295.2511990814746</v>
       </c>
       <c r="AB7" t="n">
-        <v>310.224109658531</v>
+        <v>403.97571614688</v>
       </c>
       <c r="AC7" t="n">
-        <v>280.6167560350851</v>
+        <v>365.4208407812995</v>
       </c>
       <c r="AD7" t="n">
-        <v>226731.5501890334</v>
+        <v>295251.1990814746</v>
       </c>
       <c r="AE7" t="n">
-        <v>310224.109658531</v>
+        <v>403975.7161468799</v>
       </c>
       <c r="AF7" t="n">
         <v>1.15244980027139e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.61979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>280616.7560350851</v>
+        <v>365420.8407812995</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.6776923601352</v>
+        <v>546.09641320362</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.5864158979384</v>
+        <v>747.1932046186112</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.1718526964761</v>
+        <v>675.8821338620593</v>
       </c>
       <c r="AD2" t="n">
-        <v>439677.6923601352</v>
+        <v>546096.41320362</v>
       </c>
       <c r="AE2" t="n">
-        <v>601586.4158979384</v>
+        <v>747193.2046186111</v>
       </c>
       <c r="AF2" t="n">
         <v>7.681385283573515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.35677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>544171.852696476</v>
+        <v>675882.1338620593</v>
       </c>
     </row>
     <row r="3">
@@ -3435,28 +3435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.9007019961917</v>
+        <v>347.3450951970567</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.2900476497962</v>
+        <v>475.2528830327157</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.045523803936</v>
+        <v>429.8954148976831</v>
       </c>
       <c r="AD3" t="n">
-        <v>269900.7019961917</v>
+        <v>347345.0951970567</v>
       </c>
       <c r="AE3" t="n">
-        <v>369290.0476497962</v>
+        <v>475252.8830327156</v>
       </c>
       <c r="AF3" t="n">
         <v>1.085918914728265e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>334045.523803936</v>
+        <v>429895.4148976831</v>
       </c>
     </row>
     <row r="4">
@@ -3541,28 +3541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.5189649449626</v>
+        <v>305.215489188018</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.9839264347372</v>
+        <v>417.6092974641071</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.9679166137079</v>
+        <v>377.753252232462</v>
       </c>
       <c r="AD4" t="n">
-        <v>237518.9649449626</v>
+        <v>305215.489188018</v>
       </c>
       <c r="AE4" t="n">
-        <v>324983.9264347372</v>
+        <v>417609.2974641071</v>
       </c>
       <c r="AF4" t="n">
         <v>1.20301255921241e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>293967.9166137078</v>
+        <v>377753.2522324621</v>
       </c>
     </row>
     <row r="5">
@@ -3647,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>217.3414710915214</v>
+        <v>285.1053151422809</v>
       </c>
       <c r="AB5" t="n">
-        <v>297.3761891762688</v>
+        <v>390.093670136466</v>
       </c>
       <c r="AC5" t="n">
-        <v>268.9950230514763</v>
+        <v>352.8636777585456</v>
       </c>
       <c r="AD5" t="n">
-        <v>217341.4710915214</v>
+        <v>285105.3151422809</v>
       </c>
       <c r="AE5" t="n">
-        <v>297376.1891762688</v>
+        <v>390093.670136466</v>
       </c>
       <c r="AF5" t="n">
         <v>1.254397650326425e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.69140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>268995.0230514763</v>
+        <v>352863.6777585456</v>
       </c>
     </row>
     <row r="6">
@@ -3753,28 +3753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>217.2456892546856</v>
+        <v>285.009533305445</v>
       </c>
       <c r="AB6" t="n">
-        <v>297.2451362415137</v>
+        <v>389.9626172017109</v>
       </c>
       <c r="AC6" t="n">
-        <v>268.8764776248803</v>
+        <v>352.7451323319495</v>
       </c>
       <c r="AD6" t="n">
-        <v>217245.6892546856</v>
+        <v>285009.533305445</v>
       </c>
       <c r="AE6" t="n">
-        <v>297245.1362415137</v>
+        <v>389962.6172017109</v>
       </c>
       <c r="AF6" t="n">
         <v>1.258433543006324e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>268876.4776248803</v>
+        <v>352745.1323319495</v>
       </c>
     </row>
   </sheetData>
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.2345254178396</v>
+        <v>299.9768941091694</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.175814322513</v>
+        <v>410.4416205667226</v>
       </c>
       <c r="AC2" t="n">
-        <v>278.7639471311355</v>
+        <v>371.2696483582662</v>
       </c>
       <c r="AD2" t="n">
-        <v>225234.5254178396</v>
+        <v>299976.8941091694</v>
       </c>
       <c r="AE2" t="n">
-        <v>308175.814322513</v>
+        <v>410441.6205667226</v>
       </c>
       <c r="AF2" t="n">
         <v>1.553004522822663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.43619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>278763.9471311355</v>
+        <v>371269.6483582662</v>
       </c>
     </row>
     <row r="3">
@@ -4156,28 +4156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.8445178609232</v>
+        <v>271.2655702313069</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.6455505563929</v>
+        <v>371.1575205828177</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.7656945033864</v>
+        <v>335.7347677412447</v>
       </c>
       <c r="AD3" t="n">
-        <v>205844.5178609233</v>
+        <v>271265.5702313069</v>
       </c>
       <c r="AE3" t="n">
-        <v>281645.5505563929</v>
+        <v>371157.5205828177</v>
       </c>
       <c r="AF3" t="n">
         <v>1.653003581238651e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>254765.6945033864</v>
+        <v>335734.7677412447</v>
       </c>
     </row>
   </sheetData>
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9565182173485</v>
+        <v>371.2996493736584</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.2583237362029</v>
+        <v>508.0285608574873</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.9171784533252</v>
+        <v>459.5430280318113</v>
       </c>
       <c r="AD2" t="n">
-        <v>285956.5182173485</v>
+        <v>371299.6493736585</v>
       </c>
       <c r="AE2" t="n">
-        <v>391258.3237362029</v>
+        <v>508028.5608574873</v>
       </c>
       <c r="AF2" t="n">
         <v>1.182702757094873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>353917.1784533252</v>
+        <v>459543.0280318113</v>
       </c>
     </row>
     <row r="3">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.9476752990154</v>
+        <v>280.2583463906658</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.7326480492611</v>
+        <v>383.4618336573366</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.7946549723778</v>
+        <v>346.8647744451433</v>
       </c>
       <c r="AD3" t="n">
-        <v>213947.6752990154</v>
+        <v>280258.3463906658</v>
       </c>
       <c r="AE3" t="n">
-        <v>292732.6480492611</v>
+        <v>383461.8336573366</v>
       </c>
       <c r="AF3" t="n">
         <v>1.474512414791265e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>264794.6549723778</v>
+        <v>346864.7744451434</v>
       </c>
     </row>
     <row r="4">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.5755843032246</v>
+        <v>279.3678144934966</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.5410955644671</v>
+        <v>382.2433686281351</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.9575243387591</v>
+        <v>345.7625980082024</v>
       </c>
       <c r="AD4" t="n">
-        <v>203575.5843032246</v>
+        <v>279367.8144934966</v>
       </c>
       <c r="AE4" t="n">
-        <v>278541.0955644671</v>
+        <v>382243.3686281351</v>
       </c>
       <c r="AF4" t="n">
         <v>1.482738692291884e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.99739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>251957.5243387591</v>
+        <v>345762.5980082024</v>
       </c>
     </row>
   </sheetData>
@@ -4962,28 +4962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.321622085455</v>
+        <v>284.2300823883897</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.7713220722925</v>
+        <v>388.8961380700483</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.3068309833849</v>
+        <v>351.7804364717999</v>
       </c>
       <c r="AD2" t="n">
-        <v>210321.622085455</v>
+        <v>284230.0823883897</v>
       </c>
       <c r="AE2" t="n">
-        <v>287771.3220722926</v>
+        <v>388896.1380700482</v>
       </c>
       <c r="AF2" t="n">
         <v>1.802117341472137e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>260306.8309833849</v>
+        <v>351780.4364717999</v>
       </c>
     </row>
     <row r="3">
@@ -5068,28 +5068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.9300424088636</v>
+        <v>284.8385027117984</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.6037896003901</v>
+        <v>389.7286055981462</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.0598489789766</v>
+        <v>352.5334544673917</v>
       </c>
       <c r="AD3" t="n">
-        <v>210930.0424088636</v>
+        <v>284838.5027117984</v>
       </c>
       <c r="AE3" t="n">
-        <v>288603.7896003901</v>
+        <v>389728.6055981462</v>
       </c>
       <c r="AF3" t="n">
         <v>1.801822147448871e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>261059.8489789765</v>
+        <v>352533.4544673917</v>
       </c>
     </row>
   </sheetData>
@@ -5365,28 +5365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.9924349259106</v>
+        <v>587.3980940853464</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.4326281853721</v>
+        <v>803.7039865025522</v>
       </c>
       <c r="AC2" t="n">
-        <v>582.9288826182337</v>
+        <v>726.9996060363775</v>
       </c>
       <c r="AD2" t="n">
-        <v>470992.4349259106</v>
+        <v>587398.0940853464</v>
       </c>
       <c r="AE2" t="n">
-        <v>644432.6281853721</v>
+        <v>803703.9865025522</v>
       </c>
       <c r="AF2" t="n">
         <v>7.20803651460223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.24869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>582928.8826182337</v>
+        <v>726999.6060363775</v>
       </c>
     </row>
     <row r="3">
@@ -5471,28 +5471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>287.139308718169</v>
+        <v>364.7434185010787</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.8766698804596</v>
+        <v>499.058036537131</v>
       </c>
       <c r="AC3" t="n">
-        <v>355.3810719129372</v>
+        <v>451.42863796238</v>
       </c>
       <c r="AD3" t="n">
-        <v>287139.308718169</v>
+        <v>364743.4185010787</v>
       </c>
       <c r="AE3" t="n">
-        <v>392876.6698804597</v>
+        <v>499058.0365371311</v>
       </c>
       <c r="AF3" t="n">
         <v>1.041795778226489e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.08723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>355381.0719129372</v>
+        <v>451428.63796238</v>
       </c>
     </row>
     <row r="4">
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>244.2925273497719</v>
+        <v>312.2891936603431</v>
       </c>
       <c r="AB4" t="n">
-        <v>334.2518133454756</v>
+        <v>427.2878519929589</v>
       </c>
       <c r="AC4" t="n">
-        <v>302.3512894052493</v>
+        <v>386.5080991010169</v>
       </c>
       <c r="AD4" t="n">
-        <v>244292.5273497719</v>
+        <v>312289.1936603431</v>
       </c>
       <c r="AE4" t="n">
-        <v>334251.8133454756</v>
+        <v>427287.8519929589</v>
       </c>
       <c r="AF4" t="n">
         <v>1.155082574529483e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.51171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>302351.2894052493</v>
+        <v>386508.0991010169</v>
       </c>
     </row>
     <row r="5">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.4751378268361</v>
+        <v>289.4376387186262</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.0320543680293</v>
+        <v>396.0213463822487</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.1111004073936</v>
+        <v>358.2256249029767</v>
       </c>
       <c r="AD5" t="n">
-        <v>221475.1378268361</v>
+        <v>289437.6387186262</v>
       </c>
       <c r="AE5" t="n">
-        <v>303032.0543680293</v>
+        <v>396021.3463822487</v>
       </c>
       <c r="AF5" t="n">
         <v>1.218714694606966e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>274111.1004073936</v>
+        <v>358225.6249029767</v>
       </c>
     </row>
     <row r="6">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>219.918779087747</v>
+        <v>287.8812799795371</v>
       </c>
       <c r="AB6" t="n">
-        <v>300.902575679507</v>
+        <v>393.8918676937254</v>
       </c>
       <c r="AC6" t="n">
-        <v>272.1848561761611</v>
+        <v>356.2993806717438</v>
       </c>
       <c r="AD6" t="n">
-        <v>219918.779087747</v>
+        <v>287881.2799795371</v>
       </c>
       <c r="AE6" t="n">
-        <v>300902.575679507</v>
+        <v>393891.8676937254</v>
       </c>
       <c r="AF6" t="n">
         <v>1.226102404340881e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.66536458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>272184.8561761611</v>
+        <v>356299.3806717438</v>
       </c>
     </row>
   </sheetData>
@@ -6086,28 +6086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.3994753523273</v>
+        <v>291.0368097829248</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.1413561128995</v>
+        <v>398.2094027828702</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.9278652839751</v>
+        <v>360.2048562716792</v>
       </c>
       <c r="AD2" t="n">
-        <v>208399.4753523273</v>
+        <v>291036.8097829248</v>
       </c>
       <c r="AE2" t="n">
-        <v>285141.3561128995</v>
+        <v>398209.4027828702</v>
       </c>
       <c r="AF2" t="n">
         <v>1.886115611548047e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>257927.8652839751</v>
+        <v>360204.8562716792</v>
       </c>
     </row>
   </sheetData>
@@ -6383,28 +6383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.0620557268552</v>
+        <v>458.4666065088171</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.0750806440841</v>
+        <v>627.2942371445556</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.9710729475459</v>
+        <v>567.42615556447</v>
       </c>
       <c r="AD2" t="n">
-        <v>353062.0557268552</v>
+        <v>458466.6065088171</v>
       </c>
       <c r="AE2" t="n">
-        <v>483075.0806440841</v>
+        <v>627294.2371445557</v>
       </c>
       <c r="AF2" t="n">
         <v>9.415724473485567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.83072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>436971.0729475459</v>
+        <v>567426.15556447</v>
       </c>
     </row>
     <row r="3">
@@ -6489,28 +6489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.5299872777017</v>
+        <v>313.2033721276682</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.630763559776</v>
+        <v>428.5386713026606</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.7438977043566</v>
+        <v>387.6395419713367</v>
       </c>
       <c r="AD3" t="n">
-        <v>236529.9872777017</v>
+        <v>313203.3721276682</v>
       </c>
       <c r="AE3" t="n">
-        <v>323630.763559776</v>
+        <v>428538.6713026607</v>
       </c>
       <c r="AF3" t="n">
         <v>1.252552082226951e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.90885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>292743.8977043566</v>
+        <v>387639.5419713367</v>
       </c>
     </row>
     <row r="4">
@@ -6595,28 +6595,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.5032124718914</v>
+        <v>277.6223189570453</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.0197820502172</v>
+        <v>379.8551046293343</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.5315782897322</v>
+        <v>343.6022665734976</v>
       </c>
       <c r="AD4" t="n">
-        <v>210503.2124718914</v>
+        <v>277622.3189570453</v>
       </c>
       <c r="AE4" t="n">
-        <v>288019.7820502172</v>
+        <v>379855.1046293343</v>
       </c>
       <c r="AF4" t="n">
         <v>1.35357313683327e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260531.5782897322</v>
+        <v>343602.2665734976</v>
       </c>
     </row>
     <row r="5">
@@ -6701,28 +6701,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>210.7605854048836</v>
+        <v>277.8796918900375</v>
       </c>
       <c r="AB5" t="n">
-        <v>288.3719310516293</v>
+        <v>380.2072536307466</v>
       </c>
       <c r="AC5" t="n">
-        <v>260.8501186846939</v>
+        <v>343.9208069684593</v>
       </c>
       <c r="AD5" t="n">
-        <v>210760.5854048836</v>
+        <v>277879.6918900375</v>
       </c>
       <c r="AE5" t="n">
-        <v>288371.9310516293</v>
+        <v>380207.2536307466</v>
       </c>
       <c r="AF5" t="n">
         <v>1.353401039636325e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>260850.1186846939</v>
+        <v>343920.8069684593</v>
       </c>
     </row>
   </sheetData>
@@ -6998,28 +6998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.3430239562031</v>
+        <v>514.4035334974473</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.7129401996726</v>
+        <v>703.8296084134523</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.3901613455516</v>
+        <v>636.6570984175312</v>
       </c>
       <c r="AD2" t="n">
-        <v>408343.0239562031</v>
+        <v>514403.5334974473</v>
       </c>
       <c r="AE2" t="n">
-        <v>558712.9401996726</v>
+        <v>703829.6084134523</v>
       </c>
       <c r="AF2" t="n">
         <v>8.22971493868752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.41927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>505390.1613455516</v>
+        <v>636657.0984175312</v>
       </c>
     </row>
     <row r="3">
@@ -7104,28 +7104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>261.8798085132766</v>
+        <v>339.0885319807162</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.3155073296253</v>
+        <v>463.9558889862573</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.1183782090581</v>
+        <v>419.676590107588</v>
       </c>
       <c r="AD3" t="n">
-        <v>261879.8085132766</v>
+        <v>339088.5319807162</v>
       </c>
       <c r="AE3" t="n">
-        <v>358315.5073296253</v>
+        <v>463955.8889862573</v>
       </c>
       <c r="AF3" t="n">
         <v>1.136570823193414e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>324118.3782090581</v>
+        <v>419676.590107588</v>
       </c>
     </row>
     <row r="4">
@@ -7210,28 +7210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.891592138372</v>
+        <v>298.3819053646801</v>
       </c>
       <c r="AB4" t="n">
-        <v>315.9160625817113</v>
+        <v>408.2592866005751</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.7654769599851</v>
+        <v>369.2955932829229</v>
       </c>
       <c r="AD4" t="n">
-        <v>230891.592138372</v>
+        <v>298381.9053646801</v>
       </c>
       <c r="AE4" t="n">
-        <v>315916.0625817113</v>
+        <v>408259.2866005751</v>
       </c>
       <c r="AF4" t="n">
         <v>1.25426194678612e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.05598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>285765.476959985</v>
+        <v>369295.5932829229</v>
       </c>
     </row>
     <row r="5">
@@ -7316,28 +7316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.8860861477908</v>
+        <v>282.4437191818031</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.0166231723197</v>
+        <v>386.4519571220137</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.9560893117625</v>
+        <v>349.5695247230163</v>
       </c>
       <c r="AD5" t="n">
-        <v>214886.0861477908</v>
+        <v>282443.7191818031</v>
       </c>
       <c r="AE5" t="n">
-        <v>294016.6231723197</v>
+        <v>386451.9571220137</v>
       </c>
       <c r="AF5" t="n">
         <v>1.28783383389331e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.68489583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>265956.0893117625</v>
+        <v>349569.5247230163</v>
       </c>
     </row>
   </sheetData>
@@ -7613,28 +7613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.2397554832509</v>
+        <v>669.0551249547913</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.9163553818715</v>
+        <v>915.4307385920798</v>
       </c>
       <c r="AC2" t="n">
-        <v>671.1088997103698</v>
+        <v>828.063313715962</v>
       </c>
       <c r="AD2" t="n">
-        <v>542239.7554832508</v>
+        <v>669055.1249547913</v>
       </c>
       <c r="AE2" t="n">
-        <v>741916.3553818716</v>
+        <v>915430.7385920798</v>
       </c>
       <c r="AF2" t="n">
         <v>6.32917029844441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.31901041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>671108.8997103698</v>
+        <v>828063.313715962</v>
       </c>
     </row>
     <row r="3">
@@ -7719,28 +7719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.5516313499272</v>
+        <v>392.3829807220871</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.7009778826904</v>
+        <v>536.8757049393411</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.9316213970614</v>
+        <v>485.6370411697139</v>
       </c>
       <c r="AD3" t="n">
-        <v>304551.6313499272</v>
+        <v>392382.9807220871</v>
       </c>
       <c r="AE3" t="n">
-        <v>416700.9778826904</v>
+        <v>536875.7049393411</v>
       </c>
       <c r="AF3" t="n">
         <v>9.548885878015485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.77734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>376931.6213970614</v>
+        <v>485637.0411697139</v>
       </c>
     </row>
     <row r="4">
@@ -7825,28 +7825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.9709590644661</v>
+        <v>335.039473459858</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.599002950443</v>
+        <v>458.4157884861643</v>
       </c>
       <c r="AC4" t="n">
-        <v>318.0428875812576</v>
+        <v>414.6652290236441</v>
       </c>
       <c r="AD4" t="n">
-        <v>256970.959064466</v>
+        <v>335039.473459858</v>
       </c>
       <c r="AE4" t="n">
-        <v>351599.002950443</v>
+        <v>458415.7884861643</v>
       </c>
       <c r="AF4" t="n">
         <v>1.074452708620661e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.91536458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>318042.8875812576</v>
+        <v>414665.2290236441</v>
       </c>
     </row>
     <row r="5">
@@ -7931,28 +7931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.7362816448736</v>
+        <v>311.0088066745706</v>
       </c>
       <c r="AB5" t="n">
-        <v>332.1224893153199</v>
+        <v>425.5359700323377</v>
       </c>
       <c r="AC5" t="n">
-        <v>300.4251850720059</v>
+        <v>384.9234142959356</v>
       </c>
       <c r="AD5" t="n">
-        <v>242736.2816448736</v>
+        <v>311008.8066745705</v>
       </c>
       <c r="AE5" t="n">
-        <v>332122.4893153199</v>
+        <v>425535.9700323377</v>
       </c>
       <c r="AF5" t="n">
         <v>1.138172656912279e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>300425.185072006</v>
+        <v>384923.4142959357</v>
       </c>
     </row>
     <row r="6">
@@ -8037,28 +8037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>224.6572850087171</v>
+        <v>292.9971298461183</v>
       </c>
       <c r="AB6" t="n">
-        <v>307.3860085287024</v>
+        <v>400.891599176549</v>
       </c>
       <c r="AC6" t="n">
-        <v>278.0495192937865</v>
+        <v>362.6310676060316</v>
       </c>
       <c r="AD6" t="n">
-        <v>224657.2850087171</v>
+        <v>292997.1298461183</v>
       </c>
       <c r="AE6" t="n">
-        <v>307386.0085287024</v>
+        <v>400891.599176549</v>
       </c>
       <c r="AF6" t="n">
         <v>1.17447506082504e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>278049.5192937866</v>
+        <v>362631.0676060317</v>
       </c>
     </row>
     <row r="7">
@@ -8143,28 +8143,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>224.7452494251013</v>
+        <v>293.0850942625024</v>
       </c>
       <c r="AB7" t="n">
-        <v>307.5063653239152</v>
+        <v>401.0119559717619</v>
       </c>
       <c r="AC7" t="n">
-        <v>278.1583894053862</v>
+        <v>362.7399377176313</v>
       </c>
       <c r="AD7" t="n">
-        <v>224745.2494251013</v>
+        <v>293085.0942625024</v>
       </c>
       <c r="AE7" t="n">
-        <v>307506.3653239153</v>
+        <v>401011.9559717619</v>
       </c>
       <c r="AF7" t="n">
         <v>1.173687483248627e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.65234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>278158.3894053862</v>
+        <v>362739.9377176313</v>
       </c>
     </row>
   </sheetData>
@@ -8440,28 +8440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>310.2298766553527</v>
+        <v>395.8402347505029</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.4702036160766</v>
+        <v>541.6060724243026</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.9593631306299</v>
+        <v>489.9159490210232</v>
       </c>
       <c r="AD2" t="n">
-        <v>310229.8766553527</v>
+        <v>395840.2347505029</v>
       </c>
       <c r="AE2" t="n">
-        <v>424470.2036160766</v>
+        <v>541606.0724243026</v>
       </c>
       <c r="AF2" t="n">
         <v>1.093699383730665e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>383959.3631306299</v>
+        <v>489915.9490210232</v>
       </c>
     </row>
     <row r="3">
@@ -8546,28 +8546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.6866349228705</v>
+        <v>286.2575090396112</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.5849457916453</v>
+        <v>391.6701526580006</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.8975404390005</v>
+        <v>354.289703000832</v>
       </c>
       <c r="AD3" t="n">
-        <v>219686.6349228705</v>
+        <v>286257.5090396112</v>
       </c>
       <c r="AE3" t="n">
-        <v>300584.9457916453</v>
+        <v>391670.1526580006</v>
       </c>
       <c r="AF3" t="n">
         <v>1.404142360911467e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.22526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>271897.5404390005</v>
+        <v>354289.7030008321</v>
       </c>
     </row>
     <row r="4">
@@ -8652,28 +8652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>205.6808423419238</v>
+        <v>281.7704474180131</v>
       </c>
       <c r="AB4" t="n">
-        <v>281.4216024904435</v>
+        <v>385.5307569921424</v>
       </c>
       <c r="AC4" t="n">
-        <v>254.5631197265381</v>
+        <v>348.7362426406274</v>
       </c>
       <c r="AD4" t="n">
-        <v>205680.8423419238</v>
+        <v>281770.4474180131</v>
       </c>
       <c r="AE4" t="n">
-        <v>281421.6024904436</v>
+        <v>385530.7569921424</v>
       </c>
       <c r="AF4" t="n">
         <v>1.437156458899859e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.89973958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>254563.1197265381</v>
+        <v>348736.2426406274</v>
       </c>
     </row>
   </sheetData>
@@ -8949,28 +8949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.3230634715847</v>
+        <v>323.4632106130579</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.7665706820412</v>
+        <v>442.5766349504996</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.3397260416255</v>
+        <v>400.3377420710315</v>
       </c>
       <c r="AD2" t="n">
-        <v>248323.0634715847</v>
+        <v>323463.2106130579</v>
       </c>
       <c r="AE2" t="n">
-        <v>339766.5706820412</v>
+        <v>442576.6349504996</v>
       </c>
       <c r="AF2" t="n">
         <v>1.406642713772548e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.14583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>307339.7260416255</v>
+        <v>400337.7420710315</v>
       </c>
     </row>
     <row r="3">
@@ -9055,28 +9055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0686443178153</v>
+        <v>273.8078580906411</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.6886984962453</v>
+        <v>374.6359909897833</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.5184086749451</v>
+        <v>338.8812578146333</v>
       </c>
       <c r="AD3" t="n">
-        <v>208068.6443178153</v>
+        <v>273807.8580906411</v>
       </c>
       <c r="AE3" t="n">
-        <v>284688.6984962453</v>
+        <v>374635.9909897833</v>
       </c>
       <c r="AF3" t="n">
         <v>1.590920270610431e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.27734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>257518.4086749451</v>
+        <v>338881.2578146333</v>
       </c>
     </row>
   </sheetData>
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.0247001927683</v>
+        <v>279.4382741152084</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.5238398550209</v>
+        <v>382.3397745910203</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.7510382970221</v>
+        <v>345.8498031212965</v>
       </c>
       <c r="AD2" t="n">
-        <v>205024.7001927682</v>
+        <v>279438.2741152084</v>
       </c>
       <c r="AE2" t="n">
-        <v>280523.8398550209</v>
+        <v>382339.7745910203</v>
       </c>
       <c r="AF2" t="n">
         <v>1.701923987591498e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>253751.0382970221</v>
+        <v>345849.8031212965</v>
       </c>
     </row>
     <row r="3">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.9709040297755</v>
+        <v>278.3844779522156</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.0819894546092</v>
+        <v>380.897924190608</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.4467960751755</v>
+        <v>344.5455608994498</v>
       </c>
       <c r="AD3" t="n">
-        <v>203970.9040297755</v>
+        <v>278384.4779522156</v>
       </c>
       <c r="AE3" t="n">
-        <v>279081.9894546092</v>
+        <v>380897.924190608</v>
       </c>
       <c r="AF3" t="n">
         <v>1.719868671654228e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.83072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252446.7960751755</v>
+        <v>344545.5608994497</v>
       </c>
     </row>
   </sheetData>
@@ -16224,28 +16224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6134002227351</v>
+        <v>298.5219694513259</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.6942075453475</v>
+        <v>408.4509284631152</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.2328656323523</v>
+        <v>369.4689451150733</v>
       </c>
       <c r="AD2" t="n">
-        <v>225613.4002227351</v>
+        <v>298521.9694513259</v>
       </c>
       <c r="AE2" t="n">
-        <v>308694.2075453475</v>
+        <v>408450.9284631152</v>
       </c>
       <c r="AF2" t="n">
         <v>1.968325442529902e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.14192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279232.8656323523</v>
+        <v>369468.9451150734</v>
       </c>
     </row>
   </sheetData>
@@ -16521,28 +16521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.7326936647915</v>
+        <v>486.5233153603999</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.9352682131587</v>
+        <v>665.6826639699279</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.217937352135</v>
+        <v>602.1508448121242</v>
       </c>
       <c r="AD2" t="n">
-        <v>380732.6936647915</v>
+        <v>486523.3153603998</v>
       </c>
       <c r="AE2" t="n">
-        <v>520935.2682131586</v>
+        <v>665682.6639699279</v>
       </c>
       <c r="AF2" t="n">
         <v>8.779037044642202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.64453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>471217.937352135</v>
+        <v>602150.8448121242</v>
       </c>
     </row>
     <row r="3">
@@ -16627,28 +16627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.6572208340136</v>
+        <v>330.5192171452691</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.0650001117272</v>
+        <v>452.2309743769096</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.9416036099545</v>
+        <v>409.0706848925354</v>
       </c>
       <c r="AD3" t="n">
-        <v>253657.2208340136</v>
+        <v>330519.2171452691</v>
       </c>
       <c r="AE3" t="n">
-        <v>347065.0001117272</v>
+        <v>452230.9743769096</v>
       </c>
       <c r="AF3" t="n">
         <v>1.193476903151638e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.18880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>313941.6036099545</v>
+        <v>409070.6848925354</v>
       </c>
     </row>
     <row r="4">
@@ -16733,28 +16733,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.7693458148426</v>
+        <v>282.1123921603656</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.85689389856</v>
+        <v>385.9986208741664</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.811604375709</v>
+        <v>349.1594542504021</v>
       </c>
       <c r="AD4" t="n">
-        <v>214769.3458148426</v>
+        <v>282112.3921603656</v>
       </c>
       <c r="AE4" t="n">
-        <v>293856.89389856</v>
+        <v>385998.6208741664</v>
       </c>
       <c r="AF4" t="n">
         <v>1.308281408390426e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>265811.604375709</v>
+        <v>349159.4542504021</v>
       </c>
     </row>
     <row r="5">
@@ -16839,28 +16839,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.8742853165755</v>
+        <v>280.2173316620985</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.2639885206637</v>
+        <v>383.4057154962687</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.4661622479127</v>
+        <v>346.8140121226053</v>
       </c>
       <c r="AD5" t="n">
-        <v>212874.2853165756</v>
+        <v>280217.3316620985</v>
       </c>
       <c r="AE5" t="n">
-        <v>291263.9885206637</v>
+        <v>383405.7154962686</v>
       </c>
       <c r="AF5" t="n">
         <v>1.319667209225214e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.73046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>263466.1622479127</v>
+        <v>346814.0121226053</v>
       </c>
     </row>
   </sheetData>
@@ -17136,28 +17136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>506.3222308325203</v>
+        <v>623.090856540335</v>
       </c>
       <c r="AB2" t="n">
-        <v>692.7724135853878</v>
+        <v>852.5403987470136</v>
       </c>
       <c r="AC2" t="n">
-        <v>626.6551867449868</v>
+        <v>771.1751396385625</v>
       </c>
       <c r="AD2" t="n">
-        <v>506322.2308325203</v>
+        <v>623090.856540335</v>
       </c>
       <c r="AE2" t="n">
-        <v>692772.4135853878</v>
+        <v>852540.3987470135</v>
       </c>
       <c r="AF2" t="n">
         <v>6.740135827802749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>626655.1867449868</v>
+        <v>771175.1396385626</v>
       </c>
     </row>
     <row r="3">
@@ -17242,28 +17242,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>296.2307905404244</v>
+        <v>374.0541010763994</v>
       </c>
       <c r="AB3" t="n">
-        <v>405.3160363975402</v>
+        <v>511.7973231950102</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.6332427483882</v>
+        <v>462.9521049813322</v>
       </c>
       <c r="AD3" t="n">
-        <v>296230.7905404244</v>
+        <v>374054.1010763994</v>
       </c>
       <c r="AE3" t="n">
-        <v>405316.0363975402</v>
+        <v>511797.3231950102</v>
       </c>
       <c r="AF3" t="n">
         <v>9.947580199525566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>366633.2427483881</v>
+        <v>462952.1049813323</v>
       </c>
     </row>
     <row r="4">
@@ -17348,28 +17348,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.1473901392396</v>
+        <v>328.0038550641412</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.2626949123378</v>
+        <v>448.7893450075673</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.5976236787156</v>
+        <v>405.9575197998461</v>
       </c>
       <c r="AD4" t="n">
-        <v>250147.3901392396</v>
+        <v>328003.8550641413</v>
       </c>
       <c r="AE4" t="n">
-        <v>342262.6949123378</v>
+        <v>448789.3450075673</v>
       </c>
       <c r="AF4" t="n">
         <v>1.114870535637416e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>309597.6236787157</v>
+        <v>405957.5197998461</v>
       </c>
     </row>
     <row r="5">
@@ -17454,28 +17454,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.0528735897942</v>
+        <v>304.8751730959148</v>
       </c>
       <c r="AB5" t="n">
-        <v>310.6637585112397</v>
+        <v>417.1436619732052</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.0144454183425</v>
+        <v>377.3320563392884</v>
       </c>
       <c r="AD5" t="n">
-        <v>227052.8735897942</v>
+        <v>304875.1730959148</v>
       </c>
       <c r="AE5" t="n">
-        <v>310663.7585112397</v>
+        <v>417143.6619732052</v>
       </c>
       <c r="AF5" t="n">
         <v>1.177479970514823e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH5" t="n">
-        <v>281014.4454183425</v>
+        <v>377332.0563392884</v>
       </c>
     </row>
     <row r="6">
@@ -17560,28 +17560,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.0728485313993</v>
+        <v>290.2271500821215</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.8498685231475</v>
+        <v>397.1015906605661</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.850863527357</v>
+        <v>359.2027721835038</v>
       </c>
       <c r="AD6" t="n">
-        <v>222072.8485313993</v>
+        <v>290227.1500821215</v>
       </c>
       <c r="AE6" t="n">
-        <v>303849.8685231475</v>
+        <v>397101.5906605661</v>
       </c>
       <c r="AF6" t="n">
         <v>1.200420832149292e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>274850.863527357</v>
+        <v>359202.7721835038</v>
       </c>
     </row>
     <row r="7">
@@ -17666,28 +17666,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>222.4715413006512</v>
+        <v>290.6258428513734</v>
       </c>
       <c r="AB7" t="n">
-        <v>304.3953775591212</v>
+        <v>397.6470996965401</v>
       </c>
       <c r="AC7" t="n">
-        <v>275.3443099465642</v>
+        <v>359.6962186027112</v>
       </c>
       <c r="AD7" t="n">
-        <v>222471.5413006512</v>
+        <v>290625.8428513734</v>
       </c>
       <c r="AE7" t="n">
-        <v>304395.3775591212</v>
+        <v>397647.09969654</v>
       </c>
       <c r="AF7" t="n">
         <v>1.200345368788652e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>275344.3099465643</v>
+        <v>359696.2186027112</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +17963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.085136865765</v>
+        <v>334.3818304431395</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.9680525358351</v>
+        <v>457.5159722975278</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.0946103290199</v>
+        <v>413.8512900291511</v>
       </c>
       <c r="AD2" t="n">
-        <v>244085.136865765</v>
+        <v>334381.8304431395</v>
       </c>
       <c r="AE2" t="n">
-        <v>333968.0525358351</v>
+        <v>457515.9722975278</v>
       </c>
       <c r="AF2" t="n">
         <v>2.011772511963045e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>302094.61032902</v>
+        <v>413851.2900291511</v>
       </c>
     </row>
   </sheetData>
@@ -18260,28 +18260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.3871322970581</v>
+        <v>347.340937622908</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.0096501121407</v>
+        <v>475.2471944563462</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.7462729786458</v>
+        <v>429.8902692310584</v>
       </c>
       <c r="AD2" t="n">
-        <v>262387.1322970581</v>
+        <v>347340.937622908</v>
       </c>
       <c r="AE2" t="n">
-        <v>359009.6501121407</v>
+        <v>475247.1944563462</v>
       </c>
       <c r="AF2" t="n">
         <v>1.284585617216229e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.86197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>324746.2729786457</v>
+        <v>429890.2692310584</v>
       </c>
     </row>
     <row r="3">
@@ -18366,28 +18366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.1437939510909</v>
+        <v>276.1782291669908</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.5280097736322</v>
+        <v>377.8792372698365</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.0867400690177</v>
+        <v>341.814973221643</v>
       </c>
       <c r="AD3" t="n">
-        <v>210143.7939510909</v>
+        <v>276178.2291669908</v>
       </c>
       <c r="AE3" t="n">
-        <v>287528.0097736322</v>
+        <v>377879.2372698365</v>
       </c>
       <c r="AF3" t="n">
         <v>1.535866958945075e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.1015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>260086.7400690176</v>
+        <v>341814.973221643</v>
       </c>
     </row>
     <row r="4">
@@ -18472,28 +18472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.6281659562453</v>
+        <v>276.6626011721451</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.1907489200687</v>
+        <v>378.5419764162734</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.6862283214787</v>
+        <v>342.4144614741041</v>
       </c>
       <c r="AD4" t="n">
-        <v>210628.1659562453</v>
+        <v>276662.6011721451</v>
       </c>
       <c r="AE4" t="n">
-        <v>288190.7489200687</v>
+        <v>378541.9764162734</v>
       </c>
       <c r="AF4" t="n">
         <v>1.535234846474156e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.10807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260686.2283214787</v>
+        <v>342414.4614741041</v>
       </c>
     </row>
   </sheetData>
@@ -18769,28 +18769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.5290653063644</v>
+        <v>421.0443793788056</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.4032284809585</v>
+        <v>576.0914950331314</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.8945694820924</v>
+        <v>521.11013129666</v>
       </c>
       <c r="AD2" t="n">
-        <v>325529.0653063644</v>
+        <v>421044.3793788056</v>
       </c>
       <c r="AE2" t="n">
-        <v>445403.2284809586</v>
+        <v>576091.4950331314</v>
       </c>
       <c r="AF2" t="n">
         <v>1.016045751038348e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>402894.5694820924</v>
+        <v>521110.1312966601</v>
       </c>
     </row>
     <row r="3">
@@ -18875,28 +18875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.7453376835684</v>
+        <v>304.1507558577679</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.6112184337009</v>
+        <v>416.1524823489396</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.8714810955725</v>
+        <v>376.4354735072334</v>
       </c>
       <c r="AD3" t="n">
-        <v>227745.3376835684</v>
+        <v>304150.7558577679</v>
       </c>
       <c r="AE3" t="n">
-        <v>311611.2184337009</v>
+        <v>416152.4823489396</v>
       </c>
       <c r="AF3" t="n">
         <v>1.327009429639127e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>281871.4810955725</v>
+        <v>376435.4735072334</v>
       </c>
     </row>
     <row r="4">
@@ -18981,28 +18981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>208.2024209992981</v>
+        <v>275.0870566431559</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.8717376536605</v>
+        <v>376.3862468835913</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.6839788320738</v>
+        <v>340.4644717424359</v>
       </c>
       <c r="AD4" t="n">
-        <v>208202.420999298</v>
+        <v>275087.0566431559</v>
       </c>
       <c r="AE4" t="n">
-        <v>284871.7376536605</v>
+        <v>376386.2468835913</v>
       </c>
       <c r="AF4" t="n">
         <v>1.392656329875321e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.84765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>257683.9788320738</v>
+        <v>340464.4717424359</v>
       </c>
     </row>
   </sheetData>
